--- a/Excel/Forum/CostCalculation/CostCalculation.xlsx
+++ b/Excel/Forum/CostCalculation/CostCalculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1E1955DC-3D62-4CDD-B833-1785C4946C83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92BAA1B3-FEEB-4B80-A896-B94AE1B9C431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" xr2:uid="{93DA946E-2396-4493-94EB-5033D8A6E620}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7425" xr2:uid="{93DA946E-2396-4493-94EB-5033D8A6E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Bérlő</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Módosított bérleti díj</t>
+  </si>
+  <si>
+    <t>Bérlet vége</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -198,9 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,10 +526,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99CDD13-D40A-459E-9586-501B7C2AC2E4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +544,10 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,8 +578,14 @@
       <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -589,7 +609,7 @@
         <v>2700</v>
       </c>
       <c r="H2" s="6">
-        <f ca="1">DATEDIF(D2,TODAY(),"m")</f>
+        <f t="shared" ref="H2:H7" ca="1" si="0">DATEDIF(D2,TODAY(),"m")</f>
         <v>16</v>
       </c>
       <c r="I2" s="8">
@@ -597,11 +617,11 @@
         <v>43200</v>
       </c>
       <c r="J2" s="8">
-        <f t="array" aca="1" ref="J2" ca="1">E2*C2*SUM((IF(($A$13:$A$17=$A2)*IF($D$13:$D$17&gt;=$D2,$D$13:$D$17,$D2)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D2,$D$13:$D$17,$D2),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>48600.000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="array" ref="J2">E2*C2*SUM((IF(($A$13:$A$17=$A2)*IF($D$13:$D$17&gt;=$D2,$D$13:$D$17,$D2)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D2,$D$13:$D$17,$D2),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>72792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -621,23 +641,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G7" si="0">E3*F3*C3</f>
+        <f t="shared" ref="G3:G7" si="1">E3*F3*C3</f>
         <v>2160</v>
       </c>
       <c r="H3" s="6">
-        <f ca="1">DATEDIF(D3,TODAY(),"m")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I7" ca="1" si="1">H3*G3</f>
+        <f t="shared" ref="I3:I7" ca="1" si="2">H3*G3</f>
         <v>32400</v>
       </c>
       <c r="J3" s="8">
-        <f t="array" aca="1" ref="J3" ca="1">E3*C3*SUM((IF(($A$13:$A$17=$A3)*IF($D$13:$D$17&gt;=$D3,$D$13:$D$17,$D3)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D3,$D$13:$D$17,$D3),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>34560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="array" ref="J3">E3*C3*SUM((IF(($A$13:$A$17=$A3)*IF($D$13:$D$17&gt;=$D3,$D$13:$D$17,$D3)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D3,$D$13:$D$17,$D3),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>56073.599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -657,23 +677,23 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2312.5</v>
       </c>
       <c r="H4" s="6">
-        <f ca="1">DATEDIF(D4,TODAY(),"m")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>30062.5</v>
       </c>
       <c r="J4" s="8">
-        <f t="array" aca="1" ref="J4" ca="1">E4*C4*SUM((IF(($A$13:$A$17=$A4)*IF($D$13:$D$17&gt;=$D4,$D$13:$D$17,$D4)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D4,$D$13:$D$17,$D4),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>32374.999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="array" ref="J4">E4*C4*SUM((IF(($A$13:$A$17=$A4)*IF($D$13:$D$17&gt;=$D4,$D$13:$D$17,$D4)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D4,$D$13:$D$17,$D4),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>53095.000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -693,23 +713,23 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3072</v>
       </c>
       <c r="H5" s="6">
-        <f ca="1">DATEDIF(D5,TODAY(),"m")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>58368</v>
       </c>
       <c r="J5" s="8">
-        <f t="array" aca="1" ref="J5" ca="1">E5*C5*SUM((IF(($A$13:$A$17=$A5)*IF($D$13:$D$17&gt;=$D5,$D$13:$D$17,$D5)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D5,$D$13:$D$17,$D5),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>58368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">E5*C5*SUM((IF(($A$13:$A$17=$A5)*IF($D$13:$D$17&gt;=$D5,$D$13:$D$17,$D5)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D5,$D$13:$D$17,$D5),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>79872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -729,23 +749,23 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3840</v>
       </c>
       <c r="H6" s="6">
-        <f ca="1">DATEDIF(D6,TODAY(),"m")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>61440</v>
       </c>
       <c r="J6" s="8">
-        <f t="array" aca="1" ref="J6" ca="1">E6*C6*SUM((IF(($A$13:$A$17=$A6)*IF($D$13:$D$17&gt;=$D6,$D$13:$D$17,$D6)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D6,$D$13:$D$17,$D6),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>61440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="array" ref="J6">E6*C6*SUM((IF(($A$13:$A$17=$A6)*IF($D$13:$D$17&gt;=$D6,$D$13:$D$17,$D6)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D6,$D$13:$D$17,$D6),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>88320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -765,23 +785,23 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4320</v>
       </c>
       <c r="H7" s="6">
-        <f ca="1">DATEDIF(D7,TODAY(),"m")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>60480</v>
       </c>
       <c r="J7" s="8">
-        <f t="array" aca="1" ref="J7" ca="1">E7*C7*SUM((IF(($A$13:$A$17=$A7)*IF($D$13:$D$17&gt;=$D7,$D$13:$D$17,$D7)*IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D7,$D$13:$D$17,$D7),IF($E$13:$E$17&lt;=TODAY(),$E$13:$E$17,TODAY()),"m"),0))</f>
-        <v>60480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="array" ref="J7">E7*C7*SUM((IF(($A$13:$A$17=$A7)*IF($D$13:$D$17&gt;=$D7,$D$13:$D$17,$D7)*IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1),$C$13:$C$17,0))*IFERROR(DATEDIF(IF($D$13:$D$17&gt;=$D7,$D$13:$D$17,$D7),IF($E$13:$E$17&lt;=$M$1,$E$13:$E$17,$M$1)+1,"m"),0))</f>
+        <v>90720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -801,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -823,7 +843,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -840,11 +860,11 @@
         <v>43465</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F17" si="2">DATEDIF(D14,E14+1,"m")</f>
+        <f t="shared" ref="F14:F17" si="3">DATEDIF(D14,E14+1,"m")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -861,11 +881,11 @@
         <v>43555</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -882,7 +902,7 @@
         <v>43646</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -900,11 +920,11 @@
         <v>42736</v>
       </c>
       <c r="E17" s="5">
-        <v>43616</v>
+        <v>43830</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
